--- a/biology/Zoologie/Gondwanatheria/Gondwanatheria.xlsx
+++ b/biology/Zoologie/Gondwanatheria/Gondwanatheria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gondwanathériens
 Les Gondwanatheria (les gondwanathériens en français) sont un clade éteint de mammaliaformes qui ont vécu du Crétacé supérieur jusqu'au Miocène dans l'hémisphère sud, y compris l'Antarctique. Il n'est connu que par des dents isolées et quelques mandibules et, en raison de ces connaissances fragmentaires, sa position taxonomique n'est pas sûre.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade des Gondwanatheria a été créé en 1987 par le paléontologue et zoologiste uruguayen Álvaro Mones (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade des Gondwanatheria a été créé en 1987 par le paléontologue et zoologiste uruguayen Álvaro Mones (d).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les affinités du groupe ne sont pas claires. Les gondwanathériens ont d'abord été considérés comme des xenarthres primitifs ou des mammifères édentés similaires au tamanoir moderne, ce qui est un peu ironique, étant donné qu'ils ont été connus à l'origine seulement à partir de dents. Ils ont également été considérés comme membres des Multituberculata.
 Les dernières théories ont tendance à les classer à nouveau dans les xénarthres, ou à en faire un autre clade[réf. nécessaire]. Bien qu'ils ne soient généralement plus considérés comme des multituberculés, quelques spécimens décrits comme ? Ferugliotherium sont bien des multituberculés (Kielan-Jaworowska &amp; Hurum, 2001, p. 411). « Ces spécimens mal connus (non présentés ici) montrent qu'une branche des multituberculés a apparemment vécu à la fin du Crétacé en Amérique du Sud ».
@@ -577,7 +593,9 @@
           <t>Classification possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous-Ordre Gondwanatheria
 Famille Sudamericidae Scillato-Yané et Pascual, 1984
@@ -623,7 +641,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(es) Álvaro Mones, « Gondwanatheria, un nuevo orden de mamiferos del sudamericanos (Mammalia: Edentata:? Xenarthra) », Comunicaciones Paleontológicas del Museo de Historia Natural de Montevideo, Musée national d'histoire naturelle de l'Uruguay, vol. 18, no 1,‎ janvier 1987, p. 237-240 (ISSN 0374-7123, lire en ligne)</t>
         </is>
